--- a/t2.xlsx
+++ b/t2.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>new test</t>
   </si>
 </sst>
 </file>
@@ -58,7 +61,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEADA11" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF33CC33"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF33CC33"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF33CC33"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF33CC33"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -358,9 +383,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -369,6 +396,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
